--- a/data/countries.xlsx
+++ b/data/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\kaggle_projects\k-responses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE3E15-77F8-4F64-8D30-80264CE5FBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3CADBC-42CD-4841-B9ED-0A2EF90743CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="2790" windowWidth="10155" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="입국" sheetId="1" r:id="rId1"/>
@@ -793,10 +793,6 @@
     <t>케이만아일랜드</t>
   </si>
   <si>
-    <t>국가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아시아</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -862,6 +858,10 @@
   </si>
   <si>
     <t>아랍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1338,9 +1338,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A264" sqref="A264"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4555,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -5835,87 +5835,87 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
